--- a/raw_data/20200818_saline/20200818_Sensor2_Test_33.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_33.xlsx
@@ -1,960 +1,1376 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56A702-90B2-4DF6-9414-7CFEFAAB6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>29171.311989</v>
+        <v>29171.311989000002</v>
       </c>
       <c r="B2" s="1">
-        <v>8.103142</v>
+        <v>8.1031420000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.911000</v>
+        <v>-308.911</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>29181.679864</v>
+        <v>29181.679864000002</v>
       </c>
       <c r="G2" s="1">
-        <v>8.106022</v>
+        <v>8.1060219999999994</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.200000</v>
+        <v>1273.2</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.616000</v>
+        <v>-265.61599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>29192.083948</v>
       </c>
       <c r="L2" s="1">
-        <v>8.108912</v>
+        <v>8.1089120000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1308.090000</v>
+        <v>1308.0899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.401000</v>
+        <v>-203.40100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>29202.586770</v>
+        <v>29202.586770000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.111830</v>
+        <v>8.1118299999999994</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.780000</v>
+        <v>1319.78</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.658000</v>
+        <v>-184.65799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>29212.929876</v>
+        <v>29212.929875999998</v>
       </c>
       <c r="V2" s="1">
-        <v>8.114703</v>
+        <v>8.1147030000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.850000</v>
+        <v>1332.85</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.000000</v>
+        <v>-171</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>29223.030863</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.117509</v>
+        <v>8.1175090000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.661000</v>
+        <v>-168.661</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>29233.292599</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.120359</v>
+        <v>8.1203590000000005</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.610000</v>
+        <v>1362.61</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.307000</v>
+        <v>-178.30699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>29243.731398</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.123259</v>
+        <v>8.1232589999999991</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.167000</v>
+        <v>-208.167</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>29253.998553</v>
+        <v>29253.998553000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.126111</v>
+        <v>8.1261109999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1404.650000</v>
+        <v>1404.65</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.966000</v>
+        <v>-251.96600000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>29264.941299</v>
+        <v>29264.941298999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.129150</v>
+        <v>8.1291499999999992</v>
       </c>
       <c r="AV2" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.927000</v>
+        <v>-311.92700000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>29276.149422</v>
+        <v>29276.149421999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.132264</v>
+        <v>8.1322639999999993</v>
       </c>
       <c r="BA2" s="1">
-        <v>1448.360000</v>
+        <v>1448.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.984000</v>
+        <v>-363.98399999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>29287.050001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.135292</v>
+        <v>8.1352919999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1533.250000</v>
+        <v>1533.25</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.104000</v>
+        <v>-612.10400000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>29297.708031</v>
+        <v>29297.708030999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.138252</v>
+        <v>8.1382519999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1687.010000</v>
+        <v>1687.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.250000</v>
+        <v>-1057.25</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>29308.405039</v>
+        <v>29308.405039000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.141224</v>
+        <v>8.1412239999999994</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.200000</v>
+        <v>1980.2</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1829.200000</v>
+        <v>-1829.2</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>29319.576114</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.144327</v>
+        <v>8.1443270000000005</v>
       </c>
       <c r="BU2" s="1">
-        <v>2368.960000</v>
+        <v>2368.96</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2720.180000</v>
+        <v>-2720.18</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>29330.649803</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.147403</v>
+        <v>8.1474030000000006</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2849.470000</v>
+        <v>2849.47</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3694.730000</v>
+        <v>-3694.73</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>29341.712069</v>
+        <v>29341.712069000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.150476</v>
+        <v>8.1504759999999994</v>
       </c>
       <c r="CE2" s="1">
-        <v>4261.520000</v>
+        <v>4261.5200000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6052.140000</v>
+        <v>-6052.14</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>29171.663692</v>
+        <v>29171.663691999998</v>
       </c>
       <c r="B3" s="1">
-        <v>8.103240</v>
+        <v>8.1032399999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.592000</v>
+        <v>-308.59199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>29182.336103</v>
+        <v>29182.336103000001</v>
       </c>
       <c r="G3" s="1">
         <v>8.106204</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.640000</v>
+        <v>1272.6400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.366000</v>
+        <v>-265.36599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>29192.500586</v>
+        <v>29192.500585999998</v>
       </c>
       <c r="L3" s="1">
-        <v>8.109028</v>
+        <v>8.1090280000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.540000</v>
+        <v>1308.54</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.044000</v>
+        <v>-203.04400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>29202.996924</v>
+        <v>29202.996923999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.111944</v>
+        <v>8.1119439999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.621000</v>
+        <v>-184.62100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>29213.278991</v>
+        <v>29213.278990999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.114800</v>
+        <v>8.1148000000000007</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.730000</v>
+        <v>1332.73</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.914000</v>
+        <v>-170.91399999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>29223.414769</v>
+        <v>29223.414768999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.117615</v>
+        <v>8.1176150000000007</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.810000</v>
+        <v>1349.81</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.818000</v>
+        <v>-168.81800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>29233.673491</v>
+        <v>29233.673491000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.120465</v>
+        <v>8.1204649999999994</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.650000</v>
+        <v>1362.65</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.345000</v>
+        <v>-178.345</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>29244.148501</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.123375</v>
+        <v>8.1233749999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.178000</v>
+        <v>-208.178</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>29254.430072</v>
+        <v>29254.430071999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.126231</v>
+        <v>8.1262310000000006</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1404.640000</v>
+        <v>1404.64</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.950000</v>
+        <v>-251.95</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>29265.390171</v>
+        <v>29265.390170999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.129275</v>
+        <v>8.1292749999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1429.100000</v>
+        <v>1429.1</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.901000</v>
+        <v>-311.90100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>29276.512954</v>
+        <v>29276.512954000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.132365</v>
+        <v>8.1323650000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.010000</v>
+        <v>-364.01</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>29287.435853</v>
+        <v>29287.435852999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.135399</v>
+        <v>8.1353989999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1533.300000</v>
+        <v>1533.3</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.098000</v>
+        <v>-612.09799999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>29298.084959</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.138357</v>
+        <v>8.1383569999999992</v>
       </c>
       <c r="BK3" s="1">
-        <v>1686.860000</v>
+        <v>1686.86</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>29309.228575</v>
+        <v>29309.228575000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.141452</v>
+        <v>8.1414519999999992</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.120000</v>
+        <v>1980.12</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1829.150000</v>
+        <v>-1829.15</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>29320.071121</v>
+        <v>29320.071121000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.144464</v>
+        <v>8.1444639999999993</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.200000</v>
+        <v>2369.1999999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2720.190000</v>
+        <v>-2720.19</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>29331.116532</v>
@@ -963,574 +1379,574 @@
         <v>8.147532</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.440000</v>
+        <v>2849.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3695.070000</v>
+        <v>-3695.07</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>29342.305779</v>
+        <v>29342.305778999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.150640</v>
+        <v>8.1506399999999992</v>
       </c>
       <c r="CE3" s="1">
-        <v>4280.170000</v>
+        <v>4280.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6035.440000</v>
+        <v>-6035.44</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>29172.506394</v>
       </c>
       <c r="B4" s="1">
-        <v>8.103474</v>
+        <v>8.1034740000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="D4" s="1">
-        <v>-309.081000</v>
+        <v>-309.08100000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>29182.710552</v>
       </c>
       <c r="G4" s="1">
-        <v>8.106308</v>
+        <v>8.1063080000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.620000</v>
+        <v>1272.6199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.370000</v>
+        <v>-266.37</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>29192.848777</v>
+        <v>29192.848776999999</v>
       </c>
       <c r="L4" s="1">
-        <v>8.109125</v>
+        <v>8.1091250000000006</v>
       </c>
       <c r="M4" s="1">
-        <v>1308.420000</v>
+        <v>1308.42</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.075000</v>
+        <v>-203.07499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>29203.347099</v>
+        <v>29203.347098999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.112041</v>
+        <v>8.1120409999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.667000</v>
+        <v>-184.667</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>29213.621263</v>
+        <v>29213.621263000001</v>
       </c>
       <c r="V4" s="1">
-        <v>8.114895</v>
+        <v>8.1148950000000006</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.780000</v>
+        <v>1332.78</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.896000</v>
+        <v>-170.89599999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>29223.834882</v>
+        <v>29223.834881999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.117732</v>
+        <v>8.1177320000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.860000</v>
+        <v>1349.86</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.695000</v>
+        <v>-168.69499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>29234.098068</v>
+        <v>29234.098067999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.120583</v>
+        <v>8.1205829999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.580000</v>
+        <v>1362.58</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.313000</v>
+        <v>-178.31299999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>29244.492757</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.123470</v>
+        <v>8.1234699999999993</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.175000</v>
+        <v>-208.17500000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>29254.757433</v>
+        <v>29254.757432999999</v>
       </c>
       <c r="AP4" s="1">
         <v>8.126322</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1404.640000</v>
+        <v>1404.64</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.004000</v>
+        <v>-252.00399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>29265.755257</v>
+        <v>29265.755257000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.129376</v>
+        <v>8.1293760000000006</v>
       </c>
       <c r="AV4" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.890000</v>
+        <v>-311.89</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>29276.868587</v>
+        <v>29276.868587000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.132463</v>
+        <v>8.1324629999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1448.340000</v>
+        <v>1448.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.967000</v>
+        <v>-363.96699999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>29287.978476</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.135550</v>
+        <v>8.1355500000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1533.220000</v>
+        <v>1533.22</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.122000</v>
+        <v>-612.12199999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>29298.834909</v>
+        <v>29298.834909000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.138565</v>
+        <v>8.1385649999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>29309.649182</v>
+        <v>29309.649182000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.141569</v>
+        <v>8.1415690000000005</v>
       </c>
       <c r="BP4" s="1">
-        <v>1979.990000</v>
+        <v>1979.99</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1829.110000</v>
+        <v>-1829.11</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>29320.496231</v>
+        <v>29320.496231000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.144582</v>
+        <v>8.1445819999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.980000</v>
+        <v>2368.98</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2720.330000</v>
+        <v>-2720.33</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>29331.566898</v>
+        <v>29331.566898000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.147657</v>
+        <v>8.1476570000000006</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2849.880000</v>
+        <v>2849.88</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3694.420000</v>
+        <v>-3694.42</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>29343.168634</v>
+        <v>29343.168634000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.150880</v>
+        <v>8.1508800000000008</v>
       </c>
       <c r="CE4" s="1">
-        <v>4273.700000</v>
+        <v>4273.7</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6055.350000</v>
+        <v>-6055.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>29172.689380</v>
+        <v>29172.68938</v>
       </c>
       <c r="B5" s="1">
-        <v>8.103525</v>
+        <v>8.1035249999999994</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.564000</v>
+        <v>-308.56400000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>29183.056262</v>
+        <v>29183.056261999998</v>
       </c>
       <c r="G5" s="1">
-        <v>8.106405</v>
+        <v>8.1064050000000005</v>
       </c>
       <c r="H5" s="1">
-        <v>1272.880000</v>
+        <v>1272.8800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.347000</v>
+        <v>-266.34699999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>29193.193002</v>
       </c>
       <c r="L5" s="1">
-        <v>8.109220</v>
+        <v>8.1092200000000005</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.940000</v>
+        <v>-202.94</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>29203.693803</v>
+        <v>29203.693802999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.112137</v>
+        <v>8.1121370000000006</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.707000</v>
+        <v>-184.70699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>29214.055229</v>
+        <v>29214.055229000001</v>
       </c>
       <c r="V5" s="1">
-        <v>8.115015</v>
+        <v>8.1150149999999996</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.740000</v>
+        <v>1332.74</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.031000</v>
+        <v>-171.03100000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>29224.133440</v>
+        <v>29224.133440000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.117815</v>
+        <v>8.1178150000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.740000</v>
+        <v>1349.74</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.768000</v>
+        <v>-168.768</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>29234.360947</v>
+        <v>29234.360947000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.120656</v>
+        <v>8.1206560000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.361000</v>
+        <v>-178.36099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>29244.840918</v>
+        <v>29244.840918000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.123567</v>
+        <v>8.1235669999999995</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.120000</v>
+        <v>1383.12</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.161000</v>
+        <v>-208.161</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>29255.115543</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.126421</v>
+        <v>8.1264210000000006</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.985000</v>
+        <v>-251.98500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>29266.117800</v>
+        <v>29266.1178</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.129477</v>
+        <v>8.1294769999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>1429.100000</v>
+        <v>1429.1</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.893000</v>
+        <v>-311.89299999999997</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>29277.589770</v>
+        <v>29277.589769999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.132664</v>
+        <v>8.1326640000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.002000</v>
+        <v>-364.00200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>29288.159515</v>
+        <v>29288.159514999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.135600</v>
+        <v>8.1356000000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1533.220000</v>
+        <v>1533.22</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.108000</v>
+        <v>-612.10799999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>29299.232233</v>
+        <v>29299.232232999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.138676</v>
+        <v>8.1386760000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.210000</v>
+        <v>-1057.21</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>29310.049951</v>
+        <v>29310.049951000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.141681</v>
+        <v>8.1416810000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1979.950000</v>
+        <v>1979.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1829.290000</v>
+        <v>-1829.29</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>29321.222335</v>
+        <v>29321.222334999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.144784</v>
+        <v>8.1447839999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>2368.780000</v>
+        <v>2368.7800000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2720.480000</v>
+        <v>-2720.48</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>29332.301969</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.147862</v>
+        <v>8.1478619999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2849.170000</v>
+        <v>2849.17</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3693.880000</v>
+        <v>-3693.88</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>29343.386596</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.150941</v>
+        <v>8.1509409999999995</v>
       </c>
       <c r="CE5" s="1">
-        <v>4270.030000</v>
+        <v>4270.03</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6055.350000</v>
+        <v>-6055.35</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>29173.028644</v>
+        <v>29173.028644000002</v>
       </c>
       <c r="B6" s="1">
-        <v>8.103619</v>
+        <v>8.1036190000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.970000</v>
+        <v>1247.97</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.956000</v>
+        <v>-308.95600000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>29183.402966</v>
+        <v>29183.402966000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.106501</v>
+        <v>8.1065009999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1272.800000</v>
+        <v>1272.8</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.965000</v>
+        <v>-266.96499999999997</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>29193.613609</v>
@@ -1539,1705 +1955,1705 @@
         <v>8.109337</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.820000</v>
+        <v>1307.82</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.902000</v>
+        <v>-202.90199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>29204.116890</v>
+        <v>29204.116890000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.112255</v>
+        <v>8.1122549999999993</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.740000</v>
+        <v>-184.74</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>29214.321085</v>
       </c>
       <c r="V6" s="1">
-        <v>8.115089</v>
+        <v>8.1150889999999993</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.560000</v>
+        <v>1332.56</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.901000</v>
+        <v>-170.90100000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>29224.473199</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.117909</v>
+        <v>8.1179089999999992</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.880000</v>
+        <v>1349.88</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.756000</v>
+        <v>-168.756</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>29234.702228</v>
+        <v>29234.702227999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.120751</v>
+        <v>8.1207510000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.255000</v>
+        <v>-178.255</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29245.191124</v>
+        <v>29245.191124000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.123664</v>
+        <v>8.1236639999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.158000</v>
+        <v>-208.15799999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>29255.836726</v>
+        <v>29255.836726000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.126621</v>
+        <v>8.1266210000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1404.650000</v>
+        <v>1404.65</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.978000</v>
+        <v>-251.97800000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>29266.852376</v>
+        <v>29266.852375999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.129681</v>
+        <v>8.1296809999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.908000</v>
+        <v>-311.90800000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>29277.945434</v>
+        <v>29277.945434000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.132763</v>
+        <v>8.1327630000000006</v>
       </c>
       <c r="BA6" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.973000</v>
+        <v>-363.97300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>29288.520640</v>
+        <v>29288.520639999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.135700</v>
+        <v>8.1356999999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1533.250000</v>
+        <v>1533.25</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.086000</v>
+        <v>-612.08600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>29299.606722</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.138780</v>
+        <v>8.1387800000000006</v>
       </c>
       <c r="BK6" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.210000</v>
+        <v>-1057.21</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>29310.786014</v>
+        <v>29310.786014000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.141885</v>
+        <v>8.1418850000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1979.980000</v>
+        <v>1979.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1829.210000</v>
+        <v>-1829.21</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>29321.344848</v>
+        <v>29321.344848000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.144818</v>
+        <v>8.1448180000000008</v>
       </c>
       <c r="BU6" s="1">
-        <v>2369.090000</v>
+        <v>2369.09</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2720.060000</v>
+        <v>-2720.06</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>29332.430465</v>
+        <v>29332.430465000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.147897</v>
+        <v>8.1478970000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.560000</v>
+        <v>2848.56</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3694.910000</v>
+        <v>-3694.91</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>29343.906403</v>
+        <v>29343.906403000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.151085</v>
+        <v>8.1510850000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4282.220000</v>
+        <v>4282.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6042.340000</v>
+        <v>-6042.34</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>29173.461651</v>
+        <v>29173.461651000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.103739</v>
+        <v>8.1037389999999991</v>
       </c>
       <c r="C7" s="1">
-        <v>1247.360000</v>
+        <v>1247.3599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.771000</v>
+        <v>-308.77100000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>29183.840965</v>
+        <v>29183.840964999999</v>
       </c>
       <c r="G7" s="1">
-        <v>8.106622</v>
+        <v>8.1066219999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.318000</v>
+        <v>-266.31799999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>29193.882473</v>
+        <v>29193.882473000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.109412</v>
+        <v>8.1094120000000007</v>
       </c>
       <c r="M7" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.292000</v>
+        <v>-203.292</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>29204.396170</v>
+        <v>29204.39617</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.112332</v>
+        <v>8.1123320000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.800000</v>
+        <v>1319.8</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.711000</v>
+        <v>-184.71100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>29214.664317</v>
+        <v>29214.664316999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.115185</v>
+        <v>8.1151850000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.750000</v>
+        <v>1332.75</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.862000</v>
+        <v>-170.86199999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>29224.832799</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.118009</v>
+        <v>8.1180090000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.810000</v>
+        <v>1349.81</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>29235.045921</v>
+        <v>29235.045921000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.120846</v>
+        <v>8.1208460000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.330000</v>
+        <v>-178.33</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>29245.884005</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.123857</v>
+        <v>8.1238569999999992</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.172000</v>
+        <v>-208.172</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>29256.201286</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.126723</v>
+        <v>8.1267230000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.978000</v>
+        <v>-251.97800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>29267.232807</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.129787</v>
+        <v>8.1297870000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.912000</v>
+        <v>-311.91199999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>29278.305496</v>
+        <v>29278.305496000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.132863</v>
+        <v>8.1328630000000004</v>
       </c>
       <c r="BA7" s="1">
-        <v>1448.270000</v>
+        <v>1448.27</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.984000</v>
+        <v>-363.98399999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>29289.193178</v>
+        <v>29289.193178000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.135887</v>
+        <v>8.1358870000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1533.280000</v>
+        <v>1533.28</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.083000</v>
+        <v>-612.08299999999997</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>29300.289179</v>
+        <v>29300.289178999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.138969</v>
+        <v>8.1389689999999995</v>
       </c>
       <c r="BK7" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.200000</v>
+        <v>-1057.2</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>29311.297885</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.142027</v>
+        <v>8.1420270000000006</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.020000</v>
+        <v>1980.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1829.070000</v>
+        <v>-1829.07</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>29321.755536</v>
+        <v>29321.755536000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.144932</v>
+        <v>8.1449320000000007</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.960000</v>
+        <v>2368.96</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2720.040000</v>
+        <v>-2720.04</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>29332.864962</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.148018</v>
+        <v>8.1480180000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2849.300000</v>
+        <v>2849.3</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3695.120000</v>
+        <v>-3695.12</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>29344.424194</v>
+        <v>29344.424193999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.151229</v>
+        <v>8.1512290000000007</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.490000</v>
+        <v>4278.49</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6047.580000</v>
+        <v>-6047.58</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>29173.725560</v>
+        <v>29173.725559999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.103813</v>
+        <v>8.1038130000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>1247.590000</v>
+        <v>1247.5899999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.756000</v>
+        <v>-308.75599999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>29184.111253</v>
+        <v>29184.111252999999</v>
       </c>
       <c r="G8" s="1">
-        <v>8.106698</v>
+        <v>8.1066979999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.250000</v>
+        <v>1273.25</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.245000</v>
+        <v>-266.245</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>29194.227655</v>
+        <v>29194.227654999999</v>
       </c>
       <c r="L8" s="1">
-        <v>8.109508</v>
+        <v>8.1095079999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.333000</v>
+        <v>-203.333</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>29204.758217</v>
+        <v>29204.758216999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.112433</v>
+        <v>8.1124329999999993</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.700000</v>
+        <v>1319.7</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.652000</v>
+        <v>-184.65199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>29215.009036</v>
+        <v>29215.009035999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.115280</v>
+        <v>8.1152800000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.730000</v>
+        <v>1332.73</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.986000</v>
+        <v>-170.98599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>29225.529678</v>
+        <v>29225.529677999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.118203</v>
+        <v>8.1182029999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.890000</v>
+        <v>1349.89</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.560000</v>
+        <v>-168.56</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>29235.733409</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.121037</v>
+        <v>8.1210369999999994</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.590000</v>
+        <v>1362.59</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.344000</v>
+        <v>-178.34399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>29246.237154</v>
+        <v>29246.237153999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.123955</v>
+        <v>8.1239550000000005</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.174000</v>
+        <v>-208.17400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>29256.561414</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.126823</v>
+        <v>8.1268229999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.979000</v>
+        <v>-251.97900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>29267.598390</v>
+        <v>29267.598389999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.129888</v>
+        <v>8.1298879999999993</v>
       </c>
       <c r="AV8" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.921000</v>
+        <v>-311.92099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>29278.978105</v>
+        <v>29278.978104999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.133049</v>
+        <v>8.1330489999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.994000</v>
+        <v>-363.99400000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>29289.605861</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.136002</v>
+        <v>8.1360019999999995</v>
       </c>
       <c r="BF8" s="1">
-        <v>1533.250000</v>
+        <v>1533.25</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.086000</v>
+        <v>-612.08600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>29300.398795</v>
+        <v>29300.398795000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.139000</v>
+        <v>8.1389999999999993</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.860000</v>
+        <v>1686.86</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>29311.710556</v>
+        <v>29311.710556000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.142142</v>
+        <v>8.1421419999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1979.960000</v>
+        <v>1979.96</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1829.000000</v>
+        <v>-1829</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>29322.191518</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.145053</v>
+        <v>8.1450530000000008</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2720.200000</v>
+        <v>-2720.2</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>29333.274128</v>
+        <v>29333.274128000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.148132</v>
+        <v>8.1481320000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2848.920000</v>
+        <v>2848.92</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3694.280000</v>
+        <v>-3694.28</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>29344.976737</v>
+        <v>29344.976737000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.151382</v>
+        <v>8.1513819999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4267.450000</v>
+        <v>4267.45</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6055.710000</v>
+        <v>-6055.71</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>29174.068790</v>
+        <v>29174.068790000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.103908</v>
+        <v>8.1039080000000006</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.640000</v>
+        <v>1247.6400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.773000</v>
+        <v>-308.77300000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>29184.454980</v>
+        <v>29184.454979999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.106793</v>
+        <v>8.1067929999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.740000</v>
+        <v>1273.74</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.376000</v>
+        <v>-266.37599999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>29194.573864</v>
+        <v>29194.573864000002</v>
       </c>
       <c r="L9" s="1">
-        <v>8.109604</v>
+        <v>8.1096039999999991</v>
       </c>
       <c r="M9" s="1">
-        <v>1308.490000</v>
+        <v>1308.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.631000</v>
+        <v>-203.631</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>29205.100954</v>
+        <v>29205.100954000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.112528</v>
+        <v>8.1125279999999993</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.681000</v>
+        <v>-184.68100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>29215.691067</v>
       </c>
       <c r="V9" s="1">
-        <v>8.115470</v>
+        <v>8.1154700000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.760000</v>
+        <v>1332.76</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.935000</v>
+        <v>-170.935</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>29225.879854</v>
+        <v>29225.879853999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.118300</v>
+        <v>8.1182999999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.770000</v>
+        <v>1349.77</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.500000</v>
+        <v>-168.5</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>29236.077600</v>
+        <v>29236.077600000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.121133</v>
+        <v>8.1211330000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.299000</v>
+        <v>-178.29900000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>29246.584354</v>
+        <v>29246.584353999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.124051</v>
+        <v>8.1240509999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.165000</v>
+        <v>-208.16499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>29257.233493</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.127009</v>
+        <v>8.1270089999999993</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1404.660000</v>
+        <v>1404.66</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.997000</v>
+        <v>-251.99700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>29268.270972</v>
+        <v>29268.270971999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.130075</v>
+        <v>8.1300749999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.919000</v>
+        <v>-311.91899999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>29279.410583</v>
+        <v>29279.410583000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.133170</v>
+        <v>8.1331699999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.997000</v>
+        <v>-363.99700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>29289.991283</v>
+        <v>29289.991282999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.136109</v>
+        <v>8.1361089999999994</v>
       </c>
       <c r="BF9" s="1">
-        <v>1533.280000</v>
+        <v>1533.28</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.054000</v>
+        <v>-612.05399999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>29300.757899</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.139099</v>
+        <v>8.1390989999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.800000</v>
+        <v>1686.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.230000</v>
+        <v>-1057.23</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>29312.105868</v>
+        <v>29312.105867999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.142252</v>
+        <v>8.1422519999999992</v>
       </c>
       <c r="BP9" s="1">
-        <v>1979.890000</v>
+        <v>1979.89</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1829.060000</v>
+        <v>-1829.06</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>29322.618078</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.145172</v>
+        <v>8.1451720000000005</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.610000</v>
+        <v>2368.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2720.200000</v>
+        <v>-2720.2</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>29333.720063</v>
+        <v>29333.720063000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.148256</v>
+        <v>8.1482559999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2848.660000</v>
+        <v>2848.66</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3694.480000</v>
+        <v>-3694.48</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>29345.505999</v>
+        <v>29345.505999000001</v>
       </c>
       <c r="CD9" s="1">
         <v>8.151529</v>
       </c>
       <c r="CE9" s="1">
-        <v>4280.700000</v>
+        <v>4280.7</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6043.830000</v>
+        <v>-6043.83</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>29174.400578</v>
+        <v>29174.400578000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.104000</v>
+        <v>8.1039999999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.485000</v>
+        <v>-308.48500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>29184.800196</v>
       </c>
       <c r="G10" s="1">
-        <v>8.106889</v>
+        <v>8.1068890000000007</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.540000</v>
+        <v>1273.54</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.386000</v>
+        <v>-266.38600000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>29195.266278</v>
+        <v>29195.266277999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.109796</v>
+        <v>8.1097959999999993</v>
       </c>
       <c r="M10" s="1">
-        <v>1307.730000</v>
+        <v>1307.73</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.908000</v>
+        <v>-202.90799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>29205.796346</v>
+        <v>29205.796345999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.112721</v>
+        <v>8.1127210000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.670000</v>
+        <v>-184.67</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>29216.037244</v>
+        <v>29216.037243999999</v>
       </c>
       <c r="V10" s="1">
-        <v>8.115566</v>
+        <v>8.1155659999999994</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.620000</v>
+        <v>1332.62</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.882000</v>
+        <v>-170.88200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>29226.224605</v>
+        <v>29226.224604999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.118396</v>
+        <v>8.1183960000000006</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.830000</v>
+        <v>1349.83</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.600000</v>
+        <v>-168.6</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>29236.427280</v>
+        <v>29236.42728</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.121230</v>
+        <v>8.1212300000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.317000</v>
+        <v>-178.31700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>29247.250978</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.124236</v>
+        <v>8.1242359999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.156000</v>
+        <v>-208.15600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>29257.668452</v>
+        <v>29257.668452000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.127130</v>
+        <v>8.1271299999999993</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1404.640000</v>
+        <v>1404.64</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.948000</v>
+        <v>-251.94800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>29268.727284</v>
+        <v>29268.727284000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.130202</v>
+        <v>8.1302020000000006</v>
       </c>
       <c r="AV10" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.893000</v>
+        <v>-311.89299999999997</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>29279.768726</v>
+        <v>29279.768725999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.133269</v>
+        <v>8.1332690000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1448.320000</v>
+        <v>1448.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.976000</v>
+        <v>-363.976</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>29290.356794</v>
+        <v>29290.356793999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.136210</v>
+        <v>8.1362100000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1533.250000</v>
+        <v>1533.25</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.067000</v>
+        <v>-612.06700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>29301.132378</v>
+        <v>29301.132377999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.139203</v>
+        <v>8.1392030000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1686.870000</v>
+        <v>1686.87</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.150000</v>
+        <v>-1057.1500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>29312.528955</v>
+        <v>29312.528955000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.142369</v>
+        <v>8.1423690000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1979.970000</v>
+        <v>1979.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1829.170000</v>
+        <v>-1829.17</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>29323.029760</v>
+        <v>29323.029760000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.145286</v>
+        <v>8.1452860000000005</v>
       </c>
       <c r="BU10" s="1">
-        <v>2368.750000</v>
+        <v>2368.75</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2719.920000</v>
+        <v>-2719.92</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>29334.141632</v>
+        <v>29334.141631999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.148373</v>
+        <v>8.1483729999999994</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.340000</v>
+        <v>2849.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3694.910000</v>
+        <v>-3694.91</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>29346.022832</v>
+        <v>29346.022831999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.151673</v>
+        <v>8.1516730000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>4257.130000</v>
+        <v>4257.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6038.530000</v>
+        <v>-6038.53</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>29175.095473</v>
+        <v>29175.095473000001</v>
       </c>
       <c r="B11" s="1">
-        <v>8.104193</v>
+        <v>8.1041930000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.870000</v>
+        <v>1247.8699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.741000</v>
+        <v>-308.74099999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>29185.488147</v>
       </c>
       <c r="G11" s="1">
-        <v>8.107080</v>
+        <v>8.1070799999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.490000</v>
+        <v>1272.49</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.253000</v>
+        <v>-266.25299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>29195.614006</v>
       </c>
       <c r="L11" s="1">
-        <v>8.109893</v>
+        <v>8.1098929999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.950000</v>
+        <v>1307.95</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.056000</v>
+        <v>-203.05600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>29206.146520</v>
+        <v>29206.146519999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.112818</v>
+        <v>8.1128180000000008</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.760000</v>
+        <v>1319.76</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.756000</v>
+        <v>-184.756</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>29216.381466</v>
+        <v>29216.381465999999</v>
       </c>
       <c r="V11" s="1">
-        <v>8.115662</v>
+        <v>8.1156620000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.810000</v>
+        <v>1332.81</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.921000</v>
+        <v>-170.92099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>29226.889708</v>
+        <v>29226.889707999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.118580</v>
+        <v>8.1185799999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.800000</v>
+        <v>1349.8</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.670000</v>
+        <v>-168.67</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>29237.085471</v>
+        <v>29237.085470999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.121413</v>
+        <v>8.1214130000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.600000</v>
+        <v>1362.6</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.293000</v>
+        <v>-178.29300000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>29247.632896</v>
+        <v>29247.632895999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.124342</v>
+        <v>8.1243420000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.070000</v>
+        <v>1383.07</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.176000</v>
+        <v>-208.17599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>29258.030036</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.127231</v>
+        <v>8.1272310000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.943000</v>
+        <v>-251.94300000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>29269.092309</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.130303</v>
+        <v>8.1303029999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1429.120000</v>
+        <v>1429.12</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.910000</v>
+        <v>-311.91000000000003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>29280.131306</v>
+        <v>29280.131305999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.133370</v>
+        <v>8.1333699999999993</v>
       </c>
       <c r="BA11" s="1">
-        <v>1448.370000</v>
+        <v>1448.37</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.962000</v>
+        <v>-363.96199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>29290.773432</v>
+        <v>29290.773432000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.136326</v>
+        <v>8.1363260000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.046000</v>
+        <v>-612.04600000000005</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>29301.555962</v>
+        <v>29301.555961999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.139321</v>
+        <v>8.1393210000000007</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.820000</v>
+        <v>1686.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.200000</v>
+        <v>-1057.2</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>29312.925258</v>
+        <v>29312.925257999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.142479</v>
+        <v>8.1424789999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1829.100000</v>
+        <v>-1829.1</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>29323.459292</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.145405</v>
+        <v>8.1454050000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>2368.830000</v>
+        <v>2368.83</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2719.810000</v>
+        <v>-2719.81</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>29334.565216</v>
+        <v>29334.565215999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.148490</v>
+        <v>8.1484900000000007</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.340000</v>
+        <v>2849.34</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3694.740000</v>
+        <v>-3694.74</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>29346.565423</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.151824</v>
+        <v>8.1518239999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>4276.410000</v>
+        <v>4276.41</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6050.700000</v>
+        <v>-6050.7</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>29175.436224</v>
+        <v>29175.436224000001</v>
       </c>
       <c r="B12" s="1">
-        <v>8.104288</v>
+        <v>8.1042880000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.790000</v>
+        <v>1247.79</v>
       </c>
       <c r="D12" s="1">
-        <v>-308.402000</v>
+        <v>-308.40199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>29185.833364</v>
+        <v>29185.833363999998</v>
       </c>
       <c r="G12" s="1">
-        <v>8.107176</v>
+        <v>8.1071760000000008</v>
       </c>
       <c r="H12" s="1">
-        <v>1272.730000</v>
+        <v>1272.73</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.933000</v>
+        <v>-265.93299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>29195.956213</v>
+        <v>29195.956213000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.109988</v>
+        <v>8.1099879999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>1308.040000</v>
+        <v>1308.04</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.111000</v>
+        <v>-203.11099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>29206.809677</v>
+        <v>29206.809677000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.113003</v>
+        <v>8.1130030000000009</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.710000</v>
+        <v>1319.71</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.670000</v>
+        <v>-184.67</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>29217.038202</v>
       </c>
       <c r="V12" s="1">
-        <v>8.115844</v>
+        <v>8.1158439999999992</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.750000</v>
+        <v>1332.75</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.888000</v>
+        <v>-170.88800000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>29227.270636</v>
+        <v>29227.270636000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.118686</v>
+        <v>8.1186860000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.680000</v>
+        <v>1349.68</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.531000</v>
+        <v>-168.53100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>29237.434158</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.121509</v>
+        <v>8.1215089999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.550000</v>
+        <v>1362.55</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.287000</v>
+        <v>-178.28700000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>29247.977648</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.124438</v>
+        <v>8.1244379999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.167000</v>
+        <v>-208.167</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>29258.388148</v>
+        <v>29258.388147999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.127330</v>
+        <v>8.1273300000000006</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1404.640000</v>
+        <v>1404.64</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.975000</v>
+        <v>-251.97499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>29269.456372</v>
+        <v>29269.456372000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.130405</v>
+        <v>8.1304049999999997</v>
       </c>
       <c r="AV12" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.892000</v>
+        <v>-311.892</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>29280.552412</v>
+        <v>29280.552412000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.133487</v>
+        <v>8.1334870000000006</v>
       </c>
       <c r="BA12" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.948000</v>
+        <v>-363.94799999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>29291.077016</v>
+        <v>29291.077015999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.136410</v>
+        <v>8.1364099999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1533.270000</v>
+        <v>1533.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.132000</v>
+        <v>-612.13199999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>29301.893275</v>
+        <v>29301.893274999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.139415</v>
+        <v>8.1394149999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1686.840000</v>
+        <v>1686.84</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.150000</v>
+        <v>-1057.1500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>29313.343386</v>
@@ -3246,347 +3662,347 @@
         <v>8.142595</v>
       </c>
       <c r="BP12" s="1">
-        <v>1979.830000</v>
+        <v>1979.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1829.050000</v>
+        <v>-1829.05</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>29323.889362</v>
+        <v>29323.889362000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.145525</v>
+        <v>8.1455249999999992</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.320000</v>
+        <v>2368.3200000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2719.660000</v>
+        <v>-2719.66</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>29335.015118</v>
+        <v>29335.015117999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.148615</v>
+        <v>8.1486149999999995</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2848.950000</v>
+        <v>2848.95</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3693.650000</v>
+        <v>-3693.65</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>29347.106090</v>
+        <v>29347.106090000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.151974</v>
+        <v>8.1519739999999992</v>
       </c>
       <c r="CE12" s="1">
-        <v>4267.100000</v>
+        <v>4267.1000000000004</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6031.120000</v>
+        <v>-6031.12</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>29175.778464</v>
+        <v>29175.778463999999</v>
       </c>
       <c r="B13" s="1">
-        <v>8.104383</v>
+        <v>8.1043830000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.754000</v>
+        <v>-308.75400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>29186.177122</v>
+        <v>29186.177122000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.107271</v>
+        <v>8.1072710000000008</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.190000</v>
+        <v>1272.19</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.835000</v>
+        <v>-265.83499999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>29196.616917</v>
+        <v>29196.616916999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.110171</v>
+        <v>8.1101709999999994</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.880000</v>
+        <v>1307.8800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.895000</v>
+        <v>-202.89500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>29207.188615</v>
+        <v>29207.188614999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.113108</v>
+        <v>8.1131080000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.740000</v>
+        <v>1319.74</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.661000</v>
+        <v>-184.661</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>29217.411162</v>
       </c>
       <c r="V13" s="1">
-        <v>8.115948</v>
+        <v>8.1159479999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.680000</v>
+        <v>1332.68</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.015000</v>
+        <v>-171.01499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>29227.621803</v>
+        <v>29227.621803000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.118784</v>
+        <v>8.1187839999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.879000</v>
+        <v>-168.87899999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>29237.810126</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.121614</v>
+        <v>8.1216139999999992</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.580000</v>
+        <v>1362.58</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.312000</v>
+        <v>-178.31200000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>29248.330298</v>
+        <v>29248.330298000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.124536</v>
+        <v>8.1245360000000009</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.110000</v>
+        <v>1383.11</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.180000</v>
+        <v>-208.18</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>29258.819667</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.127450</v>
+        <v>8.1274499999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1404.630000</v>
+        <v>1404.63</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.971000</v>
+        <v>-251.971</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>29269.877508</v>
+        <v>29269.877508000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.130522</v>
+        <v>8.1305219999999991</v>
       </c>
       <c r="AV13" s="1">
-        <v>1429.090000</v>
+        <v>1429.09</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.883000</v>
+        <v>-311.88299999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>29280.850966</v>
+        <v>29280.850966000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.133570</v>
+        <v>8.1335700000000006</v>
       </c>
       <c r="BA13" s="1">
-        <v>1448.340000</v>
+        <v>1448.34</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.991000</v>
+        <v>-363.99099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>29291.438103</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.136511</v>
+        <v>8.1365110000000005</v>
       </c>
       <c r="BF13" s="1">
-        <v>1533.200000</v>
+        <v>1533.2</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.100000</v>
+        <v>-612.1</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>29302.282602</v>
+        <v>29302.282601999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.139523</v>
+        <v>8.1395230000000005</v>
       </c>
       <c r="BK13" s="1">
-        <v>1686.750000</v>
+        <v>1686.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>29313.741673</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.142706</v>
+        <v>8.1427060000000004</v>
       </c>
       <c r="BP13" s="1">
-        <v>1979.930000</v>
+        <v>1979.93</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1828.930000</v>
+        <v>-1828.93</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>29324.301500</v>
+        <v>29324.301500000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.145639</v>
+        <v>8.1456389999999992</v>
       </c>
       <c r="BU13" s="1">
-        <v>2368.720000</v>
+        <v>2368.7199999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2719.520000</v>
+        <v>-2719.52</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>29335.443660</v>
+        <v>29335.443660000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.148734</v>
+        <v>8.1487339999999993</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2848.450000</v>
+        <v>2848.45</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3693.560000</v>
+        <v>-3693.56</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>29347.644717</v>
+        <v>29347.644716999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.152124</v>
+        <v>8.1521240000000006</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.660000</v>
+        <v>4263.66</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6049.080000</v>
+        <v>-6049.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>29176.441615</v>
       </c>
       <c r="B14" s="1">
-        <v>8.104567</v>
+        <v>8.1045669999999994</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.826000</v>
+        <v>-308.82600000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>29186.843218</v>
+        <v>29186.843218000002</v>
       </c>
       <c r="G14" s="1">
-        <v>8.107456</v>
+        <v>8.1074560000000009</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.580000</v>
+        <v>1272.58</v>
       </c>
       <c r="I14" s="1">
-        <v>-266.250000</v>
+        <v>-266.25</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>29196.996324</v>
@@ -3595,2763 +4011,2763 @@
         <v>8.110277</v>
       </c>
       <c r="M14" s="1">
-        <v>1308.120000</v>
+        <v>1308.1199999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.249000</v>
+        <v>-203.249</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>29207.539782</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.113205</v>
+        <v>8.1132050000000007</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.800000</v>
+        <v>1319.8</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.616000</v>
+        <v>-184.61600000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>29217.754890</v>
+        <v>29217.75489</v>
       </c>
       <c r="V14" s="1">
-        <v>8.116043</v>
+        <v>8.1160429999999995</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.740000</v>
+        <v>1332.74</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.023000</v>
+        <v>-171.023</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>29227.969003</v>
+        <v>29227.969002999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.118880</v>
+        <v>8.1188800000000008</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.710000</v>
+        <v>1349.71</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.628000</v>
+        <v>-168.62799999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>29238.144430</v>
+        <v>29238.14443</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.121707</v>
+        <v>8.1217070000000007</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.277000</v>
+        <v>-178.27699999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29248.756336</v>
+        <v>29248.756335999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.124655</v>
+        <v>8.1246550000000006</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.172000</v>
+        <v>-208.172</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>29259.110361</v>
+        <v>29259.110360999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.127531</v>
+        <v>8.1275309999999994</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1404.610000</v>
+        <v>1404.61</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.978000</v>
+        <v>-251.97800000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>29270.177556</v>
+        <v>29270.177555999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.130605</v>
+        <v>8.1306049999999992</v>
       </c>
       <c r="AV14" s="1">
-        <v>1429.110000</v>
+        <v>1429.11</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.871000</v>
+        <v>-311.87099999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>29281.207457</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.133669</v>
+        <v>8.1336689999999994</v>
       </c>
       <c r="BA14" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.932000</v>
+        <v>-363.93200000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>29291.798166</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.136611</v>
+        <v>8.1366110000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1533.220000</v>
+        <v>1533.22</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.063000</v>
+        <v>-612.06299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>29302.659064</v>
+        <v>29302.659063999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.139628</v>
+        <v>8.1396280000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.110000</v>
+        <v>-1057.1099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>29314.169257</v>
+        <v>29314.169257000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.142825</v>
+        <v>8.1428250000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1979.890000</v>
+        <v>1979.89</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1828.860000</v>
+        <v>-1828.86</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>29324.734507</v>
+        <v>29324.734507000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.145760</v>
+        <v>8.1457599999999992</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.340000</v>
+        <v>2368.34</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2719.680000</v>
+        <v>-2719.68</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>29335.868701</v>
+        <v>29335.868700999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.148852</v>
+        <v>8.1488519999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.180000</v>
+        <v>2848.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3694.140000</v>
+        <v>-3694.14</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>29348.185852</v>
+        <v>29348.185851999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.152274</v>
+        <v>8.1522740000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>4279.740000</v>
+        <v>4279.74</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6040.570000</v>
+        <v>-6040.57</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>29176.805214</v>
       </c>
       <c r="B15" s="1">
-        <v>8.104668</v>
+        <v>8.1046680000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1247.850000</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.897000</v>
+        <v>-308.89699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>29187.209761</v>
+        <v>29187.209760999998</v>
       </c>
       <c r="G15" s="1">
-        <v>8.107558</v>
+        <v>8.1075579999999992</v>
       </c>
       <c r="H15" s="1">
-        <v>1272.790000</v>
+        <v>1272.79</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.255000</v>
+        <v>-266.255</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>29197.337075</v>
+        <v>29197.337074999999</v>
       </c>
       <c r="L15" s="1">
-        <v>8.110371</v>
+        <v>8.1103710000000007</v>
       </c>
       <c r="M15" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.018000</v>
+        <v>-203.018</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>29207.887516</v>
+        <v>29207.887515999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.113302</v>
+        <v>8.1133019999999991</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.693000</v>
+        <v>-184.69300000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>29218.103080</v>
+        <v>29218.103080000001</v>
       </c>
       <c r="V15" s="1">
-        <v>8.116140</v>
+        <v>8.1161399999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.740000</v>
+        <v>1332.74</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.974000</v>
+        <v>-170.97399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>29228.384650</v>
+        <v>29228.38465</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.118996</v>
+        <v>8.1189959999999992</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.850000</v>
+        <v>1349.85</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.712000</v>
+        <v>-168.71199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>29238.829405</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.121897</v>
+        <v>8.1218970000000006</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.610000</v>
+        <v>1362.61</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.244000</v>
+        <v>-178.244</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>29249.035615</v>
+        <v>29249.035615000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.124732</v>
+        <v>8.1247319999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.060000</v>
+        <v>1383.06</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.180000</v>
+        <v>-208.18</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>29259.468465</v>
+        <v>29259.468465000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.127630</v>
+        <v>8.1276299999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.980000</v>
+        <v>-251.98</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>29270.554553</v>
+        <v>29270.554553000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.130710</v>
+        <v>8.1307100000000005</v>
       </c>
       <c r="AV15" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.876000</v>
+        <v>-311.87599999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>29281.564244</v>
+        <v>29281.564244000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.133768</v>
+        <v>8.1337679999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1448.370000</v>
+        <v>1448.37</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.964000</v>
+        <v>-363.964</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>29292.519878</v>
+        <v>29292.519877999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.136811</v>
+        <v>8.1368109999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1533.240000</v>
+        <v>1533.24</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.107000</v>
+        <v>-612.10699999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>29303.412487</v>
+        <v>29303.412487000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>8.139837</v>
       </c>
       <c r="BK15" s="1">
-        <v>1686.780000</v>
+        <v>1686.78</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.190000</v>
+        <v>-1057.19</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>29314.559081</v>
+        <v>29314.559080999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.142933</v>
+        <v>8.1429329999999993</v>
       </c>
       <c r="BP15" s="1">
-        <v>1979.850000</v>
+        <v>1979.85</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1828.970000</v>
+        <v>-1828.97</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>29325.160604</v>
+        <v>29325.160604000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.145878</v>
+        <v>8.1458779999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.650000</v>
+        <v>2368.65</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2719.240000</v>
+        <v>-2719.24</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>29336.289805</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.148969</v>
+        <v>8.1489689999999992</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2848.530000</v>
+        <v>2848.53</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3694.020000</v>
+        <v>-3694.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>29349.039467</v>
+        <v>29349.039466999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.152511</v>
+        <v>8.1525110000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>4265.650000</v>
+        <v>4265.6499999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6053.200000</v>
+        <v>-6053.2</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>29177.147918</v>
+        <v>29177.147917999999</v>
       </c>
       <c r="B16" s="1">
-        <v>8.104763</v>
+        <v>8.1047630000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1247.690000</v>
+        <v>1247.69</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.522000</v>
+        <v>-308.52199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>29187.555472</v>
       </c>
       <c r="G16" s="1">
-        <v>8.107654</v>
+        <v>8.1076540000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.900000</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-267.054000</v>
+        <v>-267.05399999999997</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>29197.687780</v>
+        <v>29197.68778</v>
       </c>
       <c r="L16" s="1">
-        <v>8.110469</v>
+        <v>8.1104690000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.990000</v>
+        <v>1307.99</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.893000</v>
+        <v>-202.893</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>29208.308614</v>
+        <v>29208.308614000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.113419</v>
+        <v>8.1134190000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.820000</v>
+        <v>1319.82</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.705000</v>
+        <v>-184.70500000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>29218.533607</v>
+        <v>29218.533607000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.116259</v>
+        <v>8.1162589999999994</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.700000</v>
+        <v>1332.7</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.983000</v>
+        <v>-170.983</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>29228.678778</v>
+        <v>29228.678778000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.119077</v>
+        <v>8.1190770000000008</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.000000</v>
+        <v>1350</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.647000</v>
+        <v>-168.64699999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>29239.171149</v>
+        <v>29239.171149000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.121992</v>
+        <v>8.1219920000000005</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.580000</v>
+        <v>1362.58</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.318000</v>
+        <v>-178.31800000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>29249.384767</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.124829</v>
+        <v>8.1248290000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.020000</v>
+        <v>1383.02</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.200000</v>
+        <v>-208.2</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>29259.831008</v>
+        <v>29259.831008000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.127731</v>
+        <v>8.1277310000000007</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1404.610000</v>
+        <v>1404.61</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.965000</v>
+        <v>-251.965</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>29271.236516</v>
+        <v>29271.236516000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.130899</v>
+        <v>8.1308989999999994</v>
       </c>
       <c r="AV16" s="1">
-        <v>1429.060000</v>
+        <v>1429.06</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.908000</v>
+        <v>-311.90800000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>29282.282419</v>
+        <v>29282.282418999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.133967</v>
+        <v>8.1339670000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1448.320000</v>
+        <v>1448.32</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.945000</v>
+        <v>-363.94499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>29292.881958</v>
+        <v>29292.881958000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.136912</v>
+        <v>8.1369120000000006</v>
       </c>
       <c r="BF16" s="1">
-        <v>1533.220000</v>
+        <v>1533.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.082000</v>
+        <v>-612.08199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>29303.789943</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.139942</v>
+        <v>8.1399419999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.840000</v>
+        <v>1686.84</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.120000</v>
+        <v>-1057.1199999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>29314.980680</v>
+        <v>29314.980680000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.143050</v>
+        <v>8.1430500000000006</v>
       </c>
       <c r="BP16" s="1">
-        <v>1979.770000</v>
+        <v>1979.77</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1828.960000</v>
+        <v>-1828.96</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>29325.882281</v>
+        <v>29325.882280999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.146078</v>
+        <v>8.1460779999999993</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.390000</v>
+        <v>2368.39</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2719.340000</v>
+        <v>-2719.34</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>29337.096795</v>
+        <v>29337.096795000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.149194</v>
+        <v>8.1491939999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2848.630000</v>
+        <v>2848.63</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3694.140000</v>
+        <v>-3694.14</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>29349.263664</v>
+        <v>29349.263663999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.152573</v>
+        <v>8.1525730000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>4266.930000</v>
+        <v>4266.93</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6051.740000</v>
+        <v>-6051.74</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>29177.489166</v>
+        <v>29177.489165999999</v>
       </c>
       <c r="B17" s="1">
-        <v>8.104858</v>
+        <v>8.1048580000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.694000</v>
+        <v>-308.69400000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>29187.900193</v>
+        <v>29187.900193000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.107750</v>
+        <v>8.1077499999999993</v>
       </c>
       <c r="H17" s="1">
-        <v>1273.090000</v>
+        <v>1273.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.363000</v>
+        <v>-265.363</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>29198.109842</v>
+        <v>29198.109842000002</v>
       </c>
       <c r="L17" s="1">
-        <v>8.110586</v>
+        <v>8.1105859999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1308.480000</v>
+        <v>1308.48</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.206000</v>
+        <v>-203.20599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>29208.601717</v>
+        <v>29208.601717000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.113500</v>
+        <v>8.1135000000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.760000</v>
+        <v>1319.76</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.796000</v>
+        <v>-184.79599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>29218.804951</v>
+        <v>29218.804950999998</v>
       </c>
       <c r="V17" s="1">
-        <v>8.116335</v>
+        <v>8.1163349999999994</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.730000</v>
+        <v>1332.73</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.965000</v>
+        <v>-170.965</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>29229.028700</v>
+        <v>29229.028699999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.119175</v>
+        <v>8.1191750000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.950000</v>
+        <v>1349.95</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.623000</v>
+        <v>-168.62299999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>29239.515900</v>
+        <v>29239.515899999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.122088</v>
+        <v>8.1220879999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.600000</v>
+        <v>1362.6</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.421000</v>
+        <v>-178.42099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>29249.735934</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.124927</v>
+        <v>8.1249269999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.171000</v>
+        <v>-208.17099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>29260.559298</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.127933</v>
+        <v>8.1279330000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1404.590000</v>
+        <v>1404.59</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.931000</v>
+        <v>-251.93100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>29271.672498</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.131020</v>
+        <v>8.1310199999999995</v>
       </c>
       <c r="AV17" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.900000</v>
+        <v>-311.89999999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>29282.643539</v>
+        <v>29282.643539000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.134068</v>
+        <v>8.1340679999999992</v>
       </c>
       <c r="BA17" s="1">
-        <v>1448.310000</v>
+        <v>1448.31</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.928000</v>
+        <v>-363.928</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>29293.243041</v>
+        <v>29293.243041000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.137012</v>
+        <v>8.1370120000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.120000</v>
+        <v>-612.12</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>29304.161451</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.140045</v>
+        <v>8.1400450000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.750000</v>
+        <v>1686.75</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.150000</v>
+        <v>-1057.1500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>29315.686985</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.143246</v>
+        <v>8.1432459999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1979.960000</v>
+        <v>1979.96</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1828.750000</v>
+        <v>-1828.75</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>29326.006745</v>
+        <v>29326.006744999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.146113</v>
+        <v>8.1461129999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.340000</v>
+        <v>2368.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2719.200000</v>
+        <v>-2719.2</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>29337.225259</v>
+        <v>29337.225258999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.149229</v>
+        <v>8.1492290000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.490000</v>
+        <v>2848.49</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3693.470000</v>
+        <v>-3693.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>29349.783466</v>
+        <v>29349.783466000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.152718</v>
+        <v>8.1527180000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4276.840000</v>
+        <v>4276.84</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6041.180000</v>
+        <v>-6041.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>29177.907821</v>
+        <v>29177.907821000001</v>
       </c>
       <c r="B18" s="1">
-        <v>8.104974</v>
+        <v>8.1049740000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.430000</v>
+        <v>1247.43</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.472000</v>
+        <v>-308.47199999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>29188.332208</v>
       </c>
       <c r="G18" s="1">
-        <v>8.107870</v>
+        <v>8.1078700000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.348000</v>
+        <v>-266.34800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>29198.398018</v>
       </c>
       <c r="L18" s="1">
-        <v>8.110666</v>
+        <v>8.1106660000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1308.340000</v>
+        <v>1308.3399999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.008000</v>
+        <v>-203.00800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>29208.950912</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.113597</v>
+        <v>8.1135970000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.710000</v>
+        <v>1319.71</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.731000</v>
+        <v>-184.73099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>29219.148182</v>
+        <v>29219.148182000001</v>
       </c>
       <c r="V18" s="1">
-        <v>8.116430</v>
+        <v>8.1164299999999994</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.840000</v>
+        <v>1332.84</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.964000</v>
+        <v>-170.964</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>29229.374169</v>
+        <v>29229.374168999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.119271</v>
+        <v>8.1192709999999995</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.930000</v>
+        <v>1349.93</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.545000</v>
+        <v>-168.54499999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>29240.204315</v>
+        <v>29240.204314999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.122279</v>
+        <v>8.1222790000000007</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.560000</v>
+        <v>1362.56</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.346000</v>
+        <v>-178.346</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>29250.434338</v>
+        <v>29250.434337999999</v>
       </c>
       <c r="AK18" s="1">
         <v>8.125121</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.127000</v>
+        <v>-208.12700000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>29260.934607</v>
+        <v>29260.934606999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.128037</v>
+        <v>8.1280370000000008</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1404.600000</v>
+        <v>1404.6</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.995000</v>
+        <v>-251.995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>29272.037584</v>
+        <v>29272.037584000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.131122</v>
+        <v>8.1311219999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.911000</v>
+        <v>-311.911</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>29283.001122</v>
+        <v>29283.001122000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.134167</v>
+        <v>8.1341669999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1448.320000</v>
+        <v>1448.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.892000</v>
+        <v>-363.892</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>29293.913604</v>
+        <v>29293.913604000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.137198</v>
+        <v>8.1371979999999997</v>
       </c>
       <c r="BF18" s="1">
-        <v>1533.230000</v>
+        <v>1533.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.041000</v>
+        <v>-612.04100000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>29304.607878</v>
+        <v>29304.607877999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.140169</v>
+        <v>8.1401690000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.800000</v>
+        <v>1686.8</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.120000</v>
+        <v>-1057.1199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>29315.801559</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.143278</v>
+        <v>8.1432780000000005</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.070000</v>
+        <v>1980.07</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1828.950000</v>
+        <v>-1828.95</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>29326.445704</v>
+        <v>29326.445704000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.146235</v>
+        <v>8.1462350000000008</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.420000</v>
+        <v>2368.42</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2718.820000</v>
+        <v>-2718.82</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>29337.650330</v>
+        <v>29337.65033</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.149347</v>
+        <v>8.1493470000000006</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.020000</v>
+        <v>2849.02</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3693.380000</v>
+        <v>-3693.38</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>29350.299833</v>
+        <v>29350.299833000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.152861</v>
+        <v>8.1528609999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4264.700000</v>
+        <v>4264.7</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6032.860000</v>
+        <v>-6032.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>29178.188061</v>
+        <v>29178.188061000001</v>
       </c>
       <c r="B19" s="1">
-        <v>8.105052</v>
+        <v>8.1050520000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.460000</v>
+        <v>1247.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.706000</v>
+        <v>-308.70600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>29188.600048</v>
       </c>
       <c r="G19" s="1">
-        <v>8.107944</v>
+        <v>8.1079439999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.684000</v>
+        <v>-266.68400000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>29198.743767</v>
       </c>
       <c r="L19" s="1">
-        <v>8.110762</v>
+        <v>8.1107619999999994</v>
       </c>
       <c r="M19" s="1">
-        <v>1308.340000</v>
+        <v>1308.3399999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.837000</v>
+        <v>-202.83699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>29209.298141</v>
+        <v>29209.298140999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.113694</v>
+        <v>8.1136940000000006</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.790000</v>
+        <v>1319.79</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.632000</v>
+        <v>-184.63200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>29219.492374</v>
+        <v>29219.492374000001</v>
       </c>
       <c r="V19" s="1">
-        <v>8.116526</v>
+        <v>8.1165260000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.710000</v>
+        <v>1332.71</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.940000</v>
+        <v>-170.94</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>29230.069560</v>
+        <v>29230.06956</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.119464</v>
+        <v>8.1194640000000007</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.950000</v>
+        <v>1349.95</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.630000</v>
+        <v>-168.63</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>29240.547050</v>
+        <v>29240.547050000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.122374</v>
+        <v>8.1223740000000006</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.590000</v>
+        <v>1362.59</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.338000</v>
+        <v>-178.33799999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>29250.778557</v>
+        <v>29250.778557000001</v>
       </c>
       <c r="AK19" s="1">
         <v>8.125216</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.159000</v>
+        <v>-208.15899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>29261.297183</v>
+        <v>29261.297182999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.128138</v>
+        <v>8.1281379999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1404.600000</v>
+        <v>1404.6</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.972000</v>
+        <v>-251.97200000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>29272.715600</v>
+        <v>29272.7156</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.131310</v>
+        <v>8.1313099999999991</v>
       </c>
       <c r="AV19" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.915000</v>
+        <v>-311.91500000000002</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>29283.665795</v>
+        <v>29283.665795000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.134352</v>
+        <v>8.1343519999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1448.320000</v>
+        <v>1448.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.914000</v>
+        <v>-363.91399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>29294.361987</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.137323</v>
+        <v>8.1373230000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1533.250000</v>
+        <v>1533.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.020000</v>
+        <v>-612.02</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>29304.910901</v>
+        <v>29304.910900999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.140253</v>
+        <v>8.1402529999999995</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.830000</v>
+        <v>1686.83</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.070000</v>
+        <v>-1057.07</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>29316.225676</v>
+        <v>29316.225675999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.143396</v>
+        <v>8.1433959999999992</v>
       </c>
       <c r="BP19" s="1">
-        <v>1979.690000</v>
+        <v>1979.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1829.040000</v>
+        <v>-1829.04</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>29326.874746</v>
+        <v>29326.874746000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.146354</v>
+        <v>8.1463540000000005</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.960000</v>
+        <v>2367.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2718.930000</v>
+        <v>-2718.93</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>29338.098217</v>
+        <v>29338.098216999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.149472</v>
+        <v>8.1494719999999994</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2848.240000</v>
+        <v>2848.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3694.260000</v>
+        <v>-3694.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>29350.815181</v>
+        <v>29350.815181000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.153004</v>
+        <v>8.1530039999999993</v>
       </c>
       <c r="CE19" s="1">
-        <v>4257.530000</v>
+        <v>4257.53</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6046.770000</v>
+        <v>-6046.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>29178.531294</v>
       </c>
       <c r="B20" s="1">
-        <v>8.105148</v>
+        <v>8.1051479999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.620000</v>
+        <v>1247.6199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.601000</v>
+        <v>-308.601</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>29188.943280</v>
+        <v>29188.94328</v>
       </c>
       <c r="G20" s="1">
-        <v>8.108040</v>
+        <v>8.1080400000000008</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.720000</v>
+        <v>1272.72</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.192000</v>
+        <v>-266.19200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>29199.090930</v>
+        <v>29199.090929999998</v>
       </c>
       <c r="L20" s="1">
-        <v>8.110859</v>
+        <v>8.1108589999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.780000</v>
+        <v>1307.78</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.676000</v>
+        <v>-202.67599999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>29209.991011</v>
+        <v>29209.991010999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.113886</v>
+        <v>8.1138860000000008</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.790000</v>
+        <v>1319.79</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.663000</v>
+        <v>-184.66300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>29220.183333</v>
+        <v>29220.183333000001</v>
       </c>
       <c r="V20" s="1">
-        <v>8.116718</v>
+        <v>8.1167180000000005</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.780000</v>
+        <v>1332.78</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.000000</v>
+        <v>-171</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>29230.419735</v>
+        <v>29230.419734999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.119561</v>
+        <v>8.1195609999999991</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.950000</v>
+        <v>1349.95</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.515000</v>
+        <v>-168.51499999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>29240.891770</v>
+        <v>29240.891769999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.122470</v>
+        <v>8.1224699999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.520000</v>
+        <v>1362.52</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.300000</v>
+        <v>-178.3</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29251.127212</v>
+        <v>29251.127211999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.125313</v>
+        <v>8.1253130000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.169000</v>
+        <v>-208.16900000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>29261.965827</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.128324</v>
+        <v>8.1283239999999992</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1404.550000</v>
+        <v>1404.55</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.984000</v>
+        <v>-251.98400000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>29273.163504</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.131434</v>
+        <v>8.1314340000000005</v>
       </c>
       <c r="AV20" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.899000</v>
+        <v>-311.899</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>29284.110705</v>
+        <v>29284.110704999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.134475</v>
+        <v>8.1344750000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1448.320000</v>
+        <v>1448.32</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.962000</v>
+        <v>-363.96199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>29294.725586</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.137424</v>
+        <v>8.1374239999999993</v>
       </c>
       <c r="BF20" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.051000</v>
+        <v>-612.05100000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>29305.290340</v>
+        <v>29305.29034</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.140358</v>
+        <v>8.1403580000000009</v>
       </c>
       <c r="BK20" s="1">
-        <v>1686.850000</v>
+        <v>1686.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.100000</v>
+        <v>-1057.0999999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>29316.624422</v>
+        <v>29316.624422000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.143507</v>
+        <v>8.1435069999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1979.800000</v>
+        <v>1979.8</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1828.630000</v>
+        <v>-1828.63</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>29327.308775</v>
+        <v>29327.308775000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.146475</v>
+        <v>8.1464750000000006</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.210000</v>
+        <v>2368.21</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2718.520000</v>
+        <v>-2718.52</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>29338.531753</v>
+        <v>29338.531752999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.149592</v>
+        <v>8.1495920000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2848.410000</v>
+        <v>2848.41</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3693.990000</v>
+        <v>-3693.99</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>29351.336440</v>
+        <v>29351.336439999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.153149</v>
+        <v>8.1531490000000009</v>
       </c>
       <c r="CE20" s="1">
-        <v>4278.020000</v>
+        <v>4278.0200000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6037.840000</v>
+        <v>-6037.84</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>29178.867548</v>
+        <v>29178.867547999998</v>
       </c>
       <c r="B21" s="1">
-        <v>8.105241</v>
+        <v>8.1052409999999995</v>
       </c>
       <c r="C21" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.602000</v>
+        <v>-308.60199999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>29189.477470</v>
+        <v>29189.477470000002</v>
       </c>
       <c r="G21" s="1">
-        <v>8.108188</v>
+        <v>8.1081880000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1272.720000</v>
+        <v>1272.72</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.134000</v>
+        <v>-266.13400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>29199.785328</v>
+        <v>29199.785328000002</v>
       </c>
       <c r="L21" s="1">
-        <v>8.111051</v>
+        <v>8.1110509999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.060000</v>
+        <v>1308.06</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.093000</v>
+        <v>-203.09299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>29210.343666</v>
+        <v>29210.343666000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.113984</v>
+        <v>8.1139840000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.870000</v>
+        <v>1319.87</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.717000</v>
+        <v>-184.71700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>29220.522597</v>
+        <v>29220.522596999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.116812</v>
+        <v>8.1168119999999995</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.760000</v>
+        <v>1332.76</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.052000</v>
+        <v>-171.05199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>29230.768919</v>
+        <v>29230.768918999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.119658</v>
+        <v>8.1196579999999994</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.750000</v>
+        <v>1349.75</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.573000</v>
+        <v>-168.57300000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>29241.538057</v>
+        <v>29241.538057000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.122649</v>
+        <v>8.1226489999999991</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.660000</v>
+        <v>1362.66</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.295000</v>
+        <v>-178.29499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>29251.785404</v>
+        <v>29251.785403999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.125496</v>
+        <v>8.1254960000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.130000</v>
+        <v>1383.13</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.139000</v>
+        <v>-208.13900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>29262.378494</v>
+        <v>29262.378494000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.128438</v>
+        <v>8.1284379999999992</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1404.580000</v>
+        <v>1404.58</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.986000</v>
+        <v>-251.98599999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>29273.528069</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.131536</v>
+        <v>8.1315360000000005</v>
       </c>
       <c r="AV21" s="1">
-        <v>1429.070000</v>
+        <v>1429.07</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.910000</v>
+        <v>-311.91000000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>29284.470768</v>
+        <v>29284.470767999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.134575</v>
+        <v>8.1345749999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.943000</v>
+        <v>-363.94299999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>29295.084658</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.137524</v>
+        <v>8.1375240000000009</v>
       </c>
       <c r="BF21" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-611.989000</v>
+        <v>-611.98900000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>29305.722356</v>
+        <v>29305.722355999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.140478</v>
+        <v>8.1404779999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1686.860000</v>
+        <v>1686.86</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.060000</v>
+        <v>-1057.06</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>29317.047013</v>
+        <v>29317.047012999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.143624</v>
+        <v>8.1436240000000009</v>
       </c>
       <c r="BP21" s="1">
-        <v>1979.860000</v>
+        <v>1979.86</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1828.900000</v>
+        <v>-1828.9</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>29327.717448</v>
+        <v>29327.717447999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.146588</v>
+        <v>8.1465879999999995</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.980000</v>
+        <v>2367.98</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2718.530000</v>
+        <v>-2718.53</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>29338.950344</v>
+        <v>29338.950344000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.149708</v>
+        <v>8.1497080000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2848.650000</v>
+        <v>2848.65</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3693.800000</v>
+        <v>-3693.8</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>29351.873111</v>
+        <v>29351.873111000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.153298</v>
+        <v>8.1532979999999995</v>
       </c>
       <c r="CE21" s="1">
-        <v>4256.700000</v>
+        <v>4256.7</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6039.830000</v>
+        <v>-6039.83</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>29179.555037</v>
+        <v>29179.555036999998</v>
       </c>
       <c r="B22" s="1">
-        <v>8.105432</v>
+        <v>8.1054320000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.738000</v>
+        <v>-308.738</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>29189.632718</v>
+        <v>29189.632718000001</v>
       </c>
       <c r="G22" s="1">
         <v>8.108231</v>
       </c>
       <c r="H22" s="1">
-        <v>1272.870000</v>
+        <v>1272.8699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.153000</v>
+        <v>-266.15300000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>29200.131317</v>
+        <v>29200.131316999999</v>
       </c>
       <c r="L22" s="1">
         <v>8.111148</v>
       </c>
       <c r="M22" s="1">
-        <v>1308.220000</v>
+        <v>1308.22</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.946000</v>
+        <v>-202.946</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>29210.690398</v>
+        <v>29210.690397999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.114081</v>
+        <v>8.1140810000000005</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.770000</v>
+        <v>1319.77</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.761000</v>
+        <v>-184.761</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>29220.873734</v>
+        <v>29220.873734000001</v>
       </c>
       <c r="V22" s="1">
-        <v>8.116909</v>
+        <v>8.1169089999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.710000</v>
+        <v>1332.71</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.977000</v>
+        <v>-170.977</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>29231.444006</v>
+        <v>29231.444006000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.119846</v>
+        <v>8.1198460000000008</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.800000</v>
+        <v>1349.8</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.557000</v>
+        <v>-168.55699999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>29241.919512</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.122755</v>
+        <v>8.1227549999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.640000</v>
+        <v>1362.64</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.292000</v>
+        <v>-178.292</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>29252.175755</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.125604</v>
+        <v>8.1256039999999992</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.153000</v>
+        <v>-208.15299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>29262.763888</v>
+        <v>29262.763888000001</v>
       </c>
       <c r="AP22" s="1">
         <v>8.128546</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.956000</v>
+        <v>-251.95599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>29273.894112</v>
+        <v>29273.894112000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.131637</v>
+        <v>8.1316369999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1429.050000</v>
+        <v>1429.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.902000</v>
+        <v>-311.90199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>29284.833344</v>
+        <v>29284.833343999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.134676</v>
+        <v>8.1346760000000007</v>
       </c>
       <c r="BA22" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.918000</v>
+        <v>-363.91800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>29295.505266</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.137640</v>
+        <v>8.1376399999999993</v>
       </c>
       <c r="BF22" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.000000</v>
+        <v>-612</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>29306.061653</v>
+        <v>29306.061653000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.140573</v>
+        <v>8.1405729999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1686.820000</v>
+        <v>1686.82</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.080000</v>
+        <v>-1057.08</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>29317.443844</v>
+        <v>29317.443844000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.143734</v>
+        <v>8.1437340000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1979.890000</v>
+        <v>1979.89</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.620000</v>
+        <v>-1828.62</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>29328.148470</v>
+        <v>29328.14847</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.146708</v>
+        <v>8.1467080000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.890000</v>
+        <v>2367.89</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2718.210000</v>
+        <v>-2718.21</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>29339.371975</v>
+        <v>29339.371974999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.149826</v>
+        <v>8.1498259999999991</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2848.620000</v>
+        <v>2848.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3693.300000</v>
+        <v>-3693.3</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>29352.414742</v>
+        <v>29352.414742000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.153449</v>
+        <v>8.1534490000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4278.110000</v>
+        <v>4278.1099999999997</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6048.340000</v>
+        <v>-6048.34</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>29179.899824</v>
       </c>
       <c r="B23" s="1">
-        <v>8.105528</v>
+        <v>8.1055279999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.610000</v>
+        <v>-308.61</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>29189.976941</v>
+        <v>29189.976941000001</v>
       </c>
       <c r="G23" s="1">
-        <v>8.108327</v>
+        <v>8.1083269999999992</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.000000</v>
+        <v>1273</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.258000</v>
+        <v>-266.25799999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>29200.474271</v>
+        <v>29200.474270999999</v>
       </c>
       <c r="L23" s="1">
         <v>8.111243</v>
       </c>
       <c r="M23" s="1">
-        <v>1308.110000</v>
+        <v>1308.1099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.992000</v>
+        <v>-202.99199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>29211.352033</v>
+        <v>29211.352032999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.114264</v>
+        <v>8.1142640000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.810000</v>
+        <v>1319.81</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.667000</v>
+        <v>-184.667</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>29221.535928</v>
+        <v>29221.535928000001</v>
       </c>
       <c r="V23" s="1">
-        <v>8.117093</v>
+        <v>8.1170930000000006</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.710000</v>
+        <v>1332.71</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.116000</v>
+        <v>-171.11600000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>29231.815510</v>
+        <v>29231.81551</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.119949</v>
+        <v>8.1199490000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.720000</v>
+        <v>1349.72</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.716000</v>
+        <v>-168.71600000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>29242.264232</v>
+        <v>29242.264232000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.122851</v>
+        <v>8.1228510000000007</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.610000</v>
+        <v>1362.61</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.260000</v>
+        <v>-178.26</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>29252.523946</v>
+        <v>29252.523946000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.125701</v>
+        <v>8.1257009999999994</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.070000</v>
+        <v>1383.07</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.140000</v>
+        <v>-208.14</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>29263.123452</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.128645</v>
+        <v>8.1286450000000006</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1404.630000</v>
+        <v>1404.63</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.961000</v>
+        <v>-251.96100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>29274.318654</v>
+        <v>29274.318653999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.131755</v>
+        <v>8.1317550000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1429.080000</v>
+        <v>1429.08</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.878000</v>
+        <v>-311.87799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>29285.257918</v>
+        <v>29285.257917999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.134794</v>
+        <v>8.1347939999999994</v>
       </c>
       <c r="BA23" s="1">
-        <v>1448.300000</v>
+        <v>1448.3</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.946000</v>
+        <v>-363.94600000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>29295.809345</v>
+        <v>29295.809345000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.137725</v>
+        <v>8.1377249999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1533.230000</v>
+        <v>1533.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-611.998000</v>
+        <v>-611.99800000000005</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>29306.434115</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.140676</v>
+        <v>8.1406759999999991</v>
       </c>
       <c r="BK23" s="1">
-        <v>1686.730000</v>
+        <v>1686.73</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.040000</v>
+        <v>-1057.04</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>29317.864916</v>
+        <v>29317.864915999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.143851</v>
+        <v>8.1438509999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1979.840000</v>
+        <v>1979.84</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.770000</v>
+        <v>-1828.77</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>29328.560678</v>
+        <v>29328.560678000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.146822</v>
+        <v>8.1468220000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.800000</v>
+        <v>2367.8000000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2718.220000</v>
+        <v>-2718.22</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>29339.829255</v>
+        <v>29339.829255000001</v>
       </c>
       <c r="BY23" s="1">
         <v>8.149953</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.050000</v>
+        <v>2848.05</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3693.340000</v>
+        <v>-3693.34</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>29352.955878</v>
+        <v>29352.955878000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.153599</v>
+        <v>8.1535989999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4262.210000</v>
+        <v>4262.21</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6030.370000</v>
+        <v>-6030.37</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>29180.239978</v>
+        <v>29180.239978000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.105622</v>
+        <v>8.1056220000000003</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.673000</v>
+        <v>-308.673</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>29190.644062</v>
+        <v>29190.644061999999</v>
       </c>
       <c r="G24" s="1">
-        <v>8.108512</v>
+        <v>8.1085119999999993</v>
       </c>
       <c r="H24" s="1">
-        <v>1272.890000</v>
+        <v>1272.8900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-266.486000</v>
+        <v>-266.48599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>29201.131966</v>
+        <v>29201.131966000001</v>
       </c>
       <c r="L24" s="1">
-        <v>8.111426</v>
+        <v>8.1114259999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.780000</v>
+        <v>1307.78</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.176000</v>
+        <v>-203.17599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>29211.736928</v>
+        <v>29211.736927999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.114371</v>
+        <v>8.1143710000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.561000</v>
+        <v>-184.56100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>29221.907395</v>
+        <v>29221.907394999998</v>
       </c>
       <c r="V24" s="1">
-        <v>8.117196</v>
+        <v>8.1171959999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.760000</v>
+        <v>1332.76</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.984000</v>
+        <v>-170.98400000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>29232.164661</v>
+        <v>29232.164660999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.120046</v>
+        <v>8.1200460000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.790000</v>
+        <v>1349.79</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.647000</v>
+        <v>-168.64699999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>29242.607927</v>
+        <v>29242.607927000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.122947</v>
+        <v>8.1229469999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.650000</v>
+        <v>1362.65</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.301000</v>
+        <v>-178.30099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>29252.872634</v>
+        <v>29252.872633999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.125798</v>
+        <v>8.1257979999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.100000</v>
+        <v>1383.1</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.127000</v>
+        <v>-208.12700000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>29263.547037</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.128763</v>
+        <v>8.1287629999999993</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1404.630000</v>
+        <v>1404.63</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.958000</v>
+        <v>-251.958</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>29274.620749</v>
+        <v>29274.620749000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.131839</v>
+        <v>8.1318389999999994</v>
       </c>
       <c r="AV24" s="1">
-        <v>1429.030000</v>
+        <v>1429.03</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.894000</v>
+        <v>-311.89400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>29285.549603</v>
+        <v>29285.549602999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.134875</v>
+        <v>8.1348749999999992</v>
       </c>
       <c r="BA24" s="1">
-        <v>1448.330000</v>
+        <v>1448.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.933000</v>
+        <v>-363.93299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>29296.169905</v>
+        <v>29296.169904999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.137825</v>
+        <v>8.1378249999999994</v>
       </c>
       <c r="BF24" s="1">
-        <v>1533.210000</v>
+        <v>1533.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.026000</v>
+        <v>-612.02599999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>29306.820040</v>
+        <v>29306.820039999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.140783</v>
+        <v>8.1407830000000008</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.770000</v>
+        <v>1686.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.020000</v>
+        <v>-1057.02</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>29318.259731</v>
+        <v>29318.259730999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.143961</v>
+        <v>8.1439609999999991</v>
       </c>
       <c r="BP24" s="1">
-        <v>1979.710000</v>
+        <v>1979.71</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1828.660000</v>
+        <v>-1828.66</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>29328.992204</v>
+        <v>29328.992203999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.146942</v>
+        <v>8.1469419999999992</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.480000</v>
+        <v>2367.48</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2718.000000</v>
+        <v>-2718</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>29340.242918</v>
@@ -6360,544 +6776,545 @@
         <v>8.150067</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2848.930000</v>
+        <v>2848.93</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3693.750000</v>
+        <v>-3693.75</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>29353.496030</v>
+        <v>29353.496029999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.153749</v>
+        <v>8.1537489999999995</v>
       </c>
       <c r="CE24" s="1">
-        <v>4265.280000</v>
+        <v>4265.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6049.840000</v>
+        <v>-6049.84</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>29180.895225</v>
       </c>
       <c r="B25" s="1">
-        <v>8.105804</v>
+        <v>8.1058039999999991</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.930000</v>
+        <v>1247.93</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.620000</v>
+        <v>-308.62</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>29191.009612</v>
+        <v>29191.009612000002</v>
       </c>
       <c r="G25" s="1">
-        <v>8.108614</v>
+        <v>8.1086139999999993</v>
       </c>
       <c r="H25" s="1">
-        <v>1272.320000</v>
+        <v>1272.32</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.472000</v>
+        <v>-265.47199999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>29201.513888</v>
+        <v>29201.513888000001</v>
       </c>
       <c r="L25" s="1">
-        <v>8.111532</v>
+        <v>8.1115320000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1308.120000</v>
+        <v>1308.1199999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.053000</v>
+        <v>-203.053</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>29212.086144</v>
+        <v>29212.086144000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.114468</v>
+        <v>8.1144680000000005</v>
       </c>
       <c r="R25" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.654000</v>
+        <v>-184.654</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>29222.254594</v>
+        <v>29222.254594000002</v>
       </c>
       <c r="V25" s="1">
-        <v>8.117293</v>
+        <v>8.1172930000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.810000</v>
+        <v>1332.81</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.955000</v>
+        <v>-170.95500000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>29232.513349</v>
+        <v>29232.513349000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.120143</v>
+        <v>8.1201430000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.850000</v>
+        <v>1349.85</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.605000</v>
+        <v>-168.60499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>29243.037502</v>
+        <v>29243.037501999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.123066</v>
+        <v>8.1230659999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.650000</v>
+        <v>1362.65</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.244000</v>
+        <v>-178.244</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>29253.299689</v>
+        <v>29253.299688999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.125917</v>
+        <v>8.1259169999999994</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.090000</v>
+        <v>1383.09</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.119000</v>
+        <v>-208.119</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>29263.842369</v>
+        <v>29263.842369000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.128845</v>
+        <v>8.1288450000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1404.620000</v>
+        <v>1404.62</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.945000</v>
+        <v>-251.94499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>29274.984813</v>
+        <v>29274.984812999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.131940</v>
+        <v>8.1319400000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.916000</v>
+        <v>-311.916</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>29285.906190</v>
+        <v>29285.906190000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.134974</v>
+        <v>8.1349739999999997</v>
       </c>
       <c r="BA25" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.938000</v>
+        <v>-363.93799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>29296.530533</v>
+        <v>29296.530533000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.137925</v>
+        <v>8.1379249999999992</v>
       </c>
       <c r="BF25" s="1">
-        <v>1533.240000</v>
+        <v>1533.24</v>
       </c>
       <c r="BG25" s="1">
-        <v>-611.973000</v>
+        <v>-611.97299999999996</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>29307.581394</v>
+        <v>29307.581394000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.140995</v>
+        <v>8.1409950000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.790000</v>
+        <v>1686.79</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.010000</v>
+        <v>-1057.01</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>29318.683813</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.144079</v>
+        <v>8.1440789999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1979.880000</v>
+        <v>1979.88</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.760000</v>
+        <v>-1828.76</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>29329.417734</v>
+        <v>29329.417733999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.147060</v>
+        <v>8.1470599999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.350000</v>
+        <v>2367.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2717.930000</v>
+        <v>-2717.93</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>29340.698774</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.150194</v>
+        <v>8.1501940000000008</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2848.690000</v>
+        <v>2848.69</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3693.000000</v>
+        <v>-3693</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>29354.341732</v>
+        <v>29354.341732000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.153984</v>
+        <v>8.1539839999999995</v>
       </c>
       <c r="CE25" s="1">
-        <v>4260.170000</v>
+        <v>4260.17</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6035.720000</v>
+        <v>-6035.72</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>29181.263721</v>
+        <v>29181.263720999999</v>
       </c>
       <c r="B26" s="1">
-        <v>8.105907</v>
+        <v>8.1059070000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.890000</v>
+        <v>1247.8900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.864000</v>
+        <v>-308.86399999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>29191.356315</v>
+        <v>29191.356315000001</v>
       </c>
       <c r="G26" s="1">
-        <v>8.108710</v>
+        <v>8.1087100000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.110000</v>
+        <v>1273.1099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.698000</v>
+        <v>-266.69799999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>29201.859101</v>
+        <v>29201.859100999998</v>
       </c>
       <c r="L26" s="1">
-        <v>8.111628</v>
+        <v>8.1116279999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>1308.390000</v>
+        <v>1308.3900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.401000</v>
+        <v>-203.40100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>29212.437775</v>
+        <v>29212.437774999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.114566</v>
+        <v>8.1145659999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.677000</v>
+        <v>-184.67699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>29222.679171</v>
       </c>
       <c r="V26" s="1">
-        <v>8.117411</v>
+        <v>8.1174110000000006</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.850000</v>
+        <v>1332.85</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.079000</v>
+        <v>-171.07900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>29232.943380</v>
+        <v>29232.943380000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.120262</v>
+        <v>8.1202620000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.469000</v>
+        <v>-168.46899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>29243.318231</v>
+        <v>29243.318231000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.123144</v>
+        <v>8.1231439999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.570000</v>
+        <v>1362.57</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.331000</v>
+        <v>-178.33099999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>29253.583897</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.125996</v>
+        <v>8.1259960000000007</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.120000</v>
+        <v>1383.12</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.142000</v>
+        <v>-208.142</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>29264.203739</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.128945</v>
+        <v>8.1289449999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1404.580000</v>
+        <v>1404.58</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.946000</v>
+        <v>-251.946</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>29275.350829</v>
+        <v>29275.350828999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.132042</v>
+        <v>8.1320420000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1429.040000</v>
+        <v>1429.04</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.876000</v>
+        <v>-311.87599999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>29286.264302</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.135073</v>
+        <v>8.1350730000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1448.350000</v>
+        <v>1448.35</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.934000</v>
+        <v>-363.93400000000003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>29297.253664</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.138126</v>
+        <v>8.1381259999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1533.230000</v>
+        <v>1533.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.021000</v>
+        <v>-612.02099999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>29307.957825</v>
+        <v>29307.957825000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.141099</v>
+        <v>8.1410990000000005</v>
       </c>
       <c r="BK26" s="1">
-        <v>1686.770000</v>
+        <v>1686.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.060000</v>
+        <v>-1057.06</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>29319.083092</v>
+        <v>29319.083092000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.144190</v>
+        <v>8.14419</v>
       </c>
       <c r="BP26" s="1">
-        <v>1979.670000</v>
+        <v>1979.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.660000</v>
+        <v>-1828.66</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>29329.830404</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.147175</v>
+        <v>8.1471750000000007</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.200000</v>
+        <v>2367.1999999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2717.760000</v>
+        <v>-2717.76</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>29341.457622</v>
+        <v>29341.457622000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.150405</v>
+        <v>8.1504049999999992</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2848.650000</v>
+        <v>2848.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3692.840000</v>
+        <v>-3692.84</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>29354.572340</v>
+        <v>29354.572339999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.154048</v>
+        <v>8.1540479999999995</v>
       </c>
       <c r="CE26" s="1">
-        <v>4258.960000</v>
+        <v>4258.96</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6033.470000</v>
+        <v>-6033.47</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>